--- a/uploads/docs/maklervertrieb_zahlen_v0.3.xlsx
+++ b/uploads/docs/maklervertrieb_zahlen_v0.3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mringel\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{287897AA-6231-4364-B517-261169879F58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31EC9D37-190D-4304-B6D3-E5F0F165E531}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3540" yWindow="6285" windowWidth="21600" windowHeight="17010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4215" yWindow="3390" windowWidth="20715" windowHeight="13185" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -244,8 +244,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8F05E67B-3D03-4A73-BF9B-59EDBD25247F}" name="Table1" displayName="Table1" ref="A1:N1048573" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A1:N1048573" xr:uid="{8F05E67B-3D03-4A73-BF9B-59EDBD25247F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8F05E67B-3D03-4A73-BF9B-59EDBD25247F}" name="Table1" displayName="Table1" ref="A1:N4" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:N4" xr:uid="{8F05E67B-3D03-4A73-BF9B-59EDBD25247F}"/>
   <tableColumns count="14">
     <tableColumn id="1" xr3:uid="{F6EE7878-1121-49F4-8505-43C585A921C0}" name="(Benutzerschlüssel), Account Manager"/>
     <tableColumn id="2" xr3:uid="{A3C32EB7-C7F8-42AF-95F4-80F98B4C90F7}" name="Account Name"/>
@@ -532,7 +532,7 @@
   <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -729,8 +729,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>